--- a/data/test_data/2022_04_22_NEG_RSL3DAAvsCtrl_mz-d_test_output.xlsx
+++ b/data/test_data/2022_04_22_NEG_RSL3DAAvsCtrl_mz-d_test_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/678a94a76f9ec8c6/Documents/Xu Lab/mass spec/20220422_lipidomics_G2XS_data/2022_04_22_NEG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/678a94a76f9ec8c6/Documents/School - Graduate/ms code test files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3D9862-6DCD-40F1-9B5B-0293F262DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{8A3D9862-6DCD-40F1-9B5B-0293F262DCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1504D3C6-4352-4DF3-A3FD-952AB54B2DB5}"/>
   <bookViews>
-    <workbookView xWindow="2670" yWindow="3285" windowWidth="16200" windowHeight="9308"/>
+    <workbookView xWindow="4462" yWindow="203" windowWidth="16261" windowHeight="12224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022_04_22_NR_lipidomics_DAARSL" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -536,8 +536,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -892,10 +893,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -1459,149 +1462,149 @@
         <v>82850.347580000001</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>883.53522710000004</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>3.3797833329999998</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>294.56961289999998</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>24933.07288</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>28630.142589999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>26721.37427</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>25261.35759</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>35853.518109999997</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>34602.093159999997</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>36199.825129999997</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>39525.548150000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18">
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>883.53365570000005</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3.3797833329999998</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>291.66656760000001</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>395.69887219999998</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>455.0363084</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>425.3166296</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>364.33353049999999</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>26922.116740000001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>27365.74468</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>29171.586190000002</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>31106.70046</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19">
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>883.53347429999997</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1.052566667</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>291.66656849999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>503.67829799999998</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>588.60052199999996</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>540.17707970000004</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>511.6458207</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>28758.233540000001</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>28312.631880000001</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>28761.967820000002</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>36728.284420000004</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>883.53318630000001</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>1.052566667</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>290.25505500000003</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>3702.925107</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>4618.7429689999999</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>3987.2096740000002</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>3481.1945599999999</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>31359.268759999999</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>30806.87386</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>31197.294989999999</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>39952.230909999998</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>879.51211090000004</v>
+        <v>885.54991089999999</v>
       </c>
       <c r="B21">
         <v>3.3797833329999998</v>
@@ -1669,843 +1672,668 @@
         <v>5641.9505870000003</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="23" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>871.53364160000001</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>3.4136333329999999</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>290.28501080000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>400.98112959999997</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>439.30415540000001</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>417.7473736</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>409.36253090000002</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>3213.2206959999999</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>3309.6058790000002</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="1">
         <v>3480.9003419999999</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="1">
         <v>3751.8594859999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>871.45625210000003</v>
+        <v>866.59247159999995</v>
       </c>
       <c r="B24">
-        <v>3.4136333329999999</v>
+        <v>6.3617666670000004</v>
       </c>
       <c r="C24">
-        <v>293.17062700000002</v>
+        <v>296.08895269999999</v>
       </c>
       <c r="D24">
-        <v>4294.5642859999998</v>
+        <v>1188.6515810000001</v>
       </c>
       <c r="E24">
-        <v>4707.157843</v>
+        <v>1309.5299669999999</v>
       </c>
       <c r="F24">
-        <v>4352.8867469999996</v>
+        <v>1423.597303</v>
       </c>
       <c r="G24">
-        <v>4053.6831499999998</v>
+        <v>1374.711892</v>
       </c>
       <c r="H24">
-        <v>1354.9532790000001</v>
+        <v>4122.7700949999999</v>
       </c>
       <c r="I24">
-        <v>1374.9701460000001</v>
+        <v>4426.5765760000004</v>
       </c>
       <c r="J24">
-        <v>1423.0740490000001</v>
+        <v>4661.3548700000001</v>
       </c>
       <c r="K24">
-        <v>1410.388588</v>
+        <v>4598.3453680000002</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>871.40885079999998</v>
+        <v>866.59180809999998</v>
       </c>
       <c r="B25">
-        <v>3.4136333329999999</v>
+        <v>6.3617666670000004</v>
       </c>
       <c r="C25">
-        <v>298.82853610000001</v>
+        <v>296.05724479999998</v>
       </c>
       <c r="D25">
-        <v>465.51934119999999</v>
+        <v>66.967545310000006</v>
       </c>
       <c r="E25">
-        <v>514.16574049999997</v>
+        <v>75.642002669999997</v>
       </c>
       <c r="F25">
-        <v>489.17046640000001</v>
+        <v>57.802986969999999</v>
       </c>
       <c r="G25">
-        <v>422.37263100000001</v>
+        <v>63.056480010000001</v>
       </c>
       <c r="H25">
-        <v>2821.137213</v>
+        <v>3347.700848</v>
       </c>
       <c r="I25">
-        <v>2829.1778549999999</v>
+        <v>3608.845722</v>
       </c>
       <c r="J25">
-        <v>2784.1133060000002</v>
+        <v>3897.1651489999999</v>
       </c>
       <c r="K25">
-        <v>3422.5330509999999</v>
+        <v>3857.6331789999999</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>871.12784169999998</v>
+        <v>863.57468859999994</v>
       </c>
       <c r="B26">
-        <v>3.4136333329999999</v>
+        <v>6.4153666669999998</v>
       </c>
       <c r="C26">
-        <v>297.4360203</v>
+        <v>297.53358329999998</v>
       </c>
       <c r="D26">
-        <v>2040.1063389999999</v>
+        <v>3317.1776909999999</v>
       </c>
       <c r="E26">
-        <v>2515.2348029999998</v>
+        <v>3397.7100839999998</v>
       </c>
       <c r="F26">
-        <v>2386.028323</v>
+        <v>3773.062375</v>
       </c>
       <c r="G26">
-        <v>2045.1428679999999</v>
+        <v>3592.9951550000001</v>
       </c>
       <c r="H26">
-        <v>439.08067949999997</v>
+        <v>1770.1770590000001</v>
       </c>
       <c r="I26">
-        <v>367.9869885</v>
+        <v>1737.749249</v>
       </c>
       <c r="J26">
-        <v>313.94637760000001</v>
+        <v>1679.4046490000001</v>
       </c>
       <c r="K26">
-        <v>378.5207724</v>
+        <v>1711.646536</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>866.59247159999995</v>
+        <v>863.5729771</v>
       </c>
       <c r="B27">
-        <v>6.3617666670000004</v>
+        <v>6.4153666669999998</v>
       </c>
       <c r="C27">
-        <v>296.08895269999999</v>
+        <v>300.34858930000001</v>
       </c>
       <c r="D27">
-        <v>1188.6515810000001</v>
+        <v>442.31369660000001</v>
       </c>
       <c r="E27">
-        <v>1309.5299669999999</v>
+        <v>554.68379570000002</v>
       </c>
       <c r="F27">
-        <v>1423.597303</v>
+        <v>537.26505380000003</v>
       </c>
       <c r="G27">
-        <v>1374.711892</v>
+        <v>506.08099349999998</v>
       </c>
       <c r="H27">
-        <v>4122.7700949999999</v>
+        <v>1815.630136</v>
       </c>
       <c r="I27">
-        <v>4426.5765760000004</v>
+        <v>1932.093286</v>
       </c>
       <c r="J27">
-        <v>4661.3548700000001</v>
+        <v>2018.9095110000001</v>
       </c>
       <c r="K27">
-        <v>4598.3453680000002</v>
+        <v>2029.645906</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>866.59180809999998</v>
+        <v>850.56169299999999</v>
       </c>
       <c r="B28">
-        <v>6.3617666670000004</v>
+        <v>0.897416667</v>
       </c>
       <c r="C28">
-        <v>296.05724479999998</v>
+        <v>291.86836060000002</v>
       </c>
       <c r="D28">
-        <v>66.967545310000006</v>
+        <v>1065.395043</v>
       </c>
       <c r="E28">
-        <v>75.642002669999997</v>
+        <v>1193.0143459999999</v>
       </c>
       <c r="F28">
-        <v>57.802986969999999</v>
+        <v>1095.722088</v>
       </c>
       <c r="G28">
-        <v>63.056480010000001</v>
+        <v>1007.070971</v>
       </c>
       <c r="H28">
-        <v>3347.700848</v>
+        <v>2634.42481</v>
       </c>
       <c r="I28">
-        <v>3608.845722</v>
+        <v>2876.028151</v>
       </c>
       <c r="J28">
-        <v>3897.1651489999999</v>
+        <v>3036.3413110000001</v>
       </c>
       <c r="K28">
-        <v>3857.6331789999999</v>
+        <v>3297.697842</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>863.57468859999994</v>
+        <v>850.56125829999996</v>
       </c>
       <c r="B29">
-        <v>6.4153666669999998</v>
+        <v>0.897416667</v>
       </c>
       <c r="C29">
-        <v>297.53358329999998</v>
+        <v>291.83594429999999</v>
       </c>
       <c r="D29">
-        <v>3317.1776909999999</v>
+        <v>376.33916019999998</v>
       </c>
       <c r="E29">
-        <v>3397.7100839999998</v>
+        <v>414.32309370000002</v>
       </c>
       <c r="F29">
-        <v>3773.062375</v>
+        <v>397.14992460000002</v>
       </c>
       <c r="G29">
-        <v>3592.9951550000001</v>
+        <v>383.12757319999997</v>
       </c>
       <c r="H29">
-        <v>1770.1770590000001</v>
+        <v>1562.4600210000001</v>
       </c>
       <c r="I29">
-        <v>1737.749249</v>
+        <v>1780.2126020000001</v>
       </c>
       <c r="J29">
-        <v>1679.4046490000001</v>
+        <v>2093.1196970000001</v>
       </c>
       <c r="K29">
-        <v>1711.646536</v>
+        <v>2295.5452989999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>863.5729771</v>
+        <v>828.57082100000002</v>
       </c>
       <c r="B30">
-        <v>6.4153666669999998</v>
+        <v>0.897416667</v>
       </c>
       <c r="C30">
-        <v>300.34858930000001</v>
+        <v>283.24643329999998</v>
       </c>
       <c r="D30">
-        <v>442.31369660000001</v>
+        <v>350.60938240000002</v>
       </c>
       <c r="E30">
-        <v>554.68379570000002</v>
+        <v>384.51494289999999</v>
       </c>
       <c r="F30">
-        <v>537.26505380000003</v>
+        <v>369.82305719999999</v>
       </c>
       <c r="G30">
-        <v>506.08099349999998</v>
+        <v>354.01754570000003</v>
       </c>
       <c r="H30">
-        <v>1815.630136</v>
+        <v>1960.768401</v>
       </c>
       <c r="I30">
-        <v>1932.093286</v>
+        <v>2383.324603</v>
       </c>
       <c r="J30">
-        <v>2018.9095110000001</v>
+        <v>2583.6129489999998</v>
       </c>
       <c r="K30">
-        <v>2029.645906</v>
+        <v>2891.3394239999998</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>852.55172449999998</v>
+        <v>828.57074069999999</v>
       </c>
       <c r="B31">
-        <v>3.4672333329999998</v>
+        <v>0.897416667</v>
       </c>
       <c r="C31">
-        <v>290.3831217</v>
+        <v>283.27954670000003</v>
       </c>
       <c r="D31">
-        <v>15284.027700000001</v>
+        <v>822.89437359999999</v>
       </c>
       <c r="E31">
-        <v>17617.30341</v>
+        <v>856.62181650000002</v>
       </c>
       <c r="F31">
-        <v>15583.658069999999</v>
+        <v>777.63602130000004</v>
       </c>
       <c r="G31">
-        <v>14456.824049999999</v>
+        <v>752.00873660000002</v>
       </c>
       <c r="H31">
-        <v>10177.84189</v>
+        <v>5159.5975109999999</v>
       </c>
       <c r="I31">
-        <v>9835.3271010000008</v>
+        <v>6053.0551089999999</v>
       </c>
       <c r="J31">
-        <v>10585.21012</v>
+        <v>6525.2619359999999</v>
       </c>
       <c r="K31">
-        <v>10676.547909999999</v>
+        <v>7298.3811889999997</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>852.48767050000004</v>
+        <v>797.54509759999996</v>
       </c>
       <c r="B32">
-        <v>3.4672333329999998</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="C32">
-        <v>284.61110680000002</v>
+        <v>279.05075360000001</v>
       </c>
       <c r="D32">
-        <v>14598.42935</v>
+        <v>2185.2745150000001</v>
       </c>
       <c r="E32">
-        <v>15720.99217</v>
+        <v>2564.926062</v>
       </c>
       <c r="F32">
-        <v>14730.4128</v>
+        <v>2446.5827279999999</v>
       </c>
       <c r="G32">
-        <v>13289.84489</v>
+        <v>2351.5774379999998</v>
       </c>
       <c r="H32">
-        <v>5823.3277909999997</v>
+        <v>12063.56849</v>
       </c>
       <c r="I32">
-        <v>5604.6781920000003</v>
+        <v>10943.582539999999</v>
       </c>
       <c r="J32">
-        <v>5522.5803980000001</v>
+        <v>8445.2578140000005</v>
       </c>
       <c r="K32">
-        <v>5709.8314399999999</v>
+        <v>8578.8209900000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>850.56169299999999</v>
+        <v>797.52918299999999</v>
       </c>
       <c r="B33">
-        <v>0.897416667</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="C33">
-        <v>291.86836060000002</v>
+        <v>279.01571000000001</v>
       </c>
       <c r="D33">
-        <v>1065.395043</v>
+        <v>573.19818329999998</v>
       </c>
       <c r="E33">
-        <v>1193.0143459999999</v>
+        <v>567.03831430000002</v>
       </c>
       <c r="F33">
-        <v>1095.722088</v>
+        <v>501.82632990000002</v>
       </c>
       <c r="G33">
-        <v>1007.070971</v>
+        <v>539.28607280000006</v>
       </c>
       <c r="H33">
-        <v>2634.42481</v>
+        <v>6140.1362479999998</v>
       </c>
       <c r="I33">
-        <v>2876.028151</v>
+        <v>5492.0646630000001</v>
       </c>
       <c r="J33">
-        <v>3036.3413110000001</v>
+        <v>4154.6487710000001</v>
       </c>
       <c r="K33">
-        <v>3297.697842</v>
+        <v>4120.4452959999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>850.56125829999996</v>
+        <v>794.57015200000001</v>
       </c>
       <c r="B34">
-        <v>0.897416667</v>
+        <v>5.1741333330000003</v>
       </c>
       <c r="C34">
-        <v>291.83594429999999</v>
+        <v>280.50537980000001</v>
       </c>
       <c r="D34">
-        <v>376.33916019999998</v>
+        <v>87.944964040000002</v>
       </c>
       <c r="E34">
-        <v>414.32309370000002</v>
+        <v>93.207040480000003</v>
       </c>
       <c r="F34">
-        <v>397.14992460000002</v>
+        <v>115.3118511</v>
       </c>
       <c r="G34">
-        <v>383.12757319999997</v>
+        <v>101.3000656</v>
       </c>
       <c r="H34">
-        <v>1562.4600210000001</v>
+        <v>2751.7972319999999</v>
       </c>
       <c r="I34">
-        <v>1780.2126020000001</v>
+        <v>3675.159858</v>
       </c>
       <c r="J34">
-        <v>2093.1196970000001</v>
+        <v>4230.0561449999996</v>
       </c>
       <c r="K34">
-        <v>2295.5452989999999</v>
+        <v>4806.458455</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>828.57082100000002</v>
+        <v>794.56970360000003</v>
       </c>
       <c r="B35">
-        <v>0.897416667</v>
+        <v>5.1741333330000003</v>
       </c>
       <c r="C35">
-        <v>283.24643329999998</v>
+        <v>279.06826169999999</v>
       </c>
       <c r="D35">
-        <v>350.60938240000002</v>
+        <v>884.99464999999998</v>
       </c>
       <c r="E35">
-        <v>384.51494289999999</v>
+        <v>951.84972519999997</v>
       </c>
       <c r="F35">
-        <v>369.82305719999999</v>
+        <v>953.55714829999999</v>
       </c>
       <c r="G35">
-        <v>354.01754570000003</v>
+        <v>916.52850769999998</v>
       </c>
       <c r="H35">
-        <v>1960.768401</v>
+        <v>3570.1457300000002</v>
       </c>
       <c r="I35">
-        <v>2383.324603</v>
+        <v>4605.285766</v>
       </c>
       <c r="J35">
-        <v>2583.6129489999998</v>
+        <v>5309.2681350000003</v>
       </c>
       <c r="K35">
-        <v>2891.3394239999998</v>
+        <v>6079.9260610000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>828.57074069999999</v>
+        <v>792.55536099999995</v>
       </c>
       <c r="B36">
-        <v>0.897416667</v>
+        <v>5.1741333330000003</v>
       </c>
       <c r="C36">
-        <v>283.27954670000003</v>
+        <v>277.60367500000001</v>
       </c>
       <c r="D36">
-        <v>822.89437359999999</v>
+        <v>1363.2840679999999</v>
       </c>
       <c r="E36">
-        <v>856.62181650000002</v>
+        <v>1446.836335</v>
       </c>
       <c r="F36">
-        <v>777.63602130000004</v>
+        <v>1476.124984</v>
       </c>
       <c r="G36">
-        <v>752.00873660000002</v>
+        <v>1370.151429</v>
       </c>
       <c r="H36">
-        <v>5159.5975109999999</v>
+        <v>2345.1752719999999</v>
       </c>
       <c r="I36">
-        <v>6053.0551089999999</v>
+        <v>2911.441065</v>
       </c>
       <c r="J36">
-        <v>6525.2619359999999</v>
+        <v>3487.791256</v>
       </c>
       <c r="K36">
-        <v>7298.3811889999997</v>
+        <v>4002.3998499999998</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>797.54509759999996</v>
+        <v>792.55476839999994</v>
       </c>
       <c r="B37">
-        <v>1.7070000000000001</v>
+        <v>5.1741333330000003</v>
       </c>
       <c r="C37">
-        <v>279.05075360000001</v>
+        <v>277.56829549999998</v>
       </c>
       <c r="D37">
-        <v>2185.2745150000001</v>
+        <v>196.28493349999999</v>
       </c>
       <c r="E37">
-        <v>2564.926062</v>
+        <v>211.59191190000001</v>
       </c>
       <c r="F37">
-        <v>2446.5827279999999</v>
+        <v>258.28464839999998</v>
       </c>
       <c r="G37">
-        <v>2351.5774379999998</v>
+        <v>229.41866289999999</v>
       </c>
       <c r="H37">
-        <v>12063.56849</v>
+        <v>1954.5633849999999</v>
       </c>
       <c r="I37">
-        <v>10943.582539999999</v>
+        <v>2574.8292849999998</v>
       </c>
       <c r="J37">
-        <v>8445.2578140000005</v>
+        <v>3138.9344879999999</v>
       </c>
       <c r="K37">
-        <v>8578.8209900000002</v>
+        <v>3615.636884</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>797.52918299999999</v>
+        <v>766.53962039999999</v>
       </c>
       <c r="B38">
-        <v>1.7070000000000001</v>
+        <v>5.1741333330000003</v>
       </c>
       <c r="C38">
-        <v>279.01571000000001</v>
+        <v>271.81468009999998</v>
       </c>
       <c r="D38">
-        <v>573.19818329999998</v>
+        <v>4104.2143859999996</v>
       </c>
       <c r="E38">
-        <v>567.03831430000002</v>
+        <v>5297.5668649999998</v>
       </c>
       <c r="F38">
-        <v>501.82632990000002</v>
+        <v>4641.6124030000001</v>
       </c>
       <c r="G38">
-        <v>539.28607280000006</v>
+        <v>4973.7523799999999</v>
       </c>
       <c r="H38">
-        <v>6140.1362479999998</v>
+        <v>5940.6275569999998</v>
       </c>
       <c r="I38">
-        <v>5492.0646630000001</v>
+        <v>7169.4644840000001</v>
       </c>
       <c r="J38">
-        <v>4154.6487710000001</v>
+        <v>8052.1879630000003</v>
       </c>
       <c r="K38">
-        <v>4120.4452959999999</v>
+        <v>8860.8494480000008</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>794.57015200000001</v>
+        <v>766.53929289999996</v>
       </c>
       <c r="B39">
         <v>5.1741333330000003</v>
       </c>
       <c r="C39">
-        <v>280.50537980000001</v>
+        <v>271.77771280000002</v>
       </c>
       <c r="D39">
-        <v>87.944964040000002</v>
+        <v>368.58632849999998</v>
       </c>
       <c r="E39">
-        <v>93.207040480000003</v>
+        <v>411.35659809999999</v>
       </c>
       <c r="F39">
-        <v>115.3118511</v>
+        <v>423.44834500000002</v>
       </c>
       <c r="G39">
-        <v>101.3000656</v>
+        <v>415.81821580000002</v>
       </c>
       <c r="H39">
-        <v>2751.7972319999999</v>
+        <v>4653.3519530000003</v>
       </c>
       <c r="I39">
-        <v>3675.159858</v>
+        <v>5758.0538280000001</v>
       </c>
       <c r="J39">
-        <v>4230.0561449999996</v>
+        <v>6231.4720589999997</v>
       </c>
       <c r="K39">
-        <v>4806.458455</v>
+        <v>7014.4262330000001</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>794.56970360000003</v>
+        <v>750.54350609999995</v>
       </c>
       <c r="B40">
-        <v>5.1741333330000003</v>
+        <v>5.0528333329999997</v>
       </c>
       <c r="C40">
-        <v>279.06826169999999</v>
+        <v>270.3798673</v>
       </c>
       <c r="D40">
-        <v>884.99464999999998</v>
+        <v>212.85418279999999</v>
       </c>
       <c r="E40">
-        <v>951.84972519999997</v>
+        <v>262.41236679999997</v>
       </c>
       <c r="F40">
-        <v>953.55714829999999</v>
+        <v>264.36912740000002</v>
       </c>
       <c r="G40">
-        <v>916.52850769999998</v>
+        <v>240.48876920000001</v>
       </c>
       <c r="H40">
-        <v>3570.1457300000002</v>
+        <v>7032.2715589999998</v>
       </c>
       <c r="I40">
-        <v>4605.285766</v>
+        <v>1996.913082</v>
       </c>
       <c r="J40">
-        <v>5309.2681350000003</v>
+        <v>9849.9817970000004</v>
       </c>
       <c r="K40">
-        <v>6079.9260610000001</v>
+        <v>10082.075129999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>792.55536099999995</v>
+        <v>750.54242020000004</v>
       </c>
       <c r="B41">
-        <v>5.1741333330000003</v>
+        <v>5.0528333329999997</v>
       </c>
       <c r="C41">
-        <v>277.60367500000001</v>
+        <v>270.41819270000002</v>
       </c>
       <c r="D41">
-        <v>1363.2840679999999</v>
+        <v>1393.2091029999999</v>
       </c>
       <c r="E41">
-        <v>1446.836335</v>
+        <v>1580.141196</v>
       </c>
       <c r="F41">
-        <v>1476.124984</v>
+        <v>1534.5133069999999</v>
       </c>
       <c r="G41">
-        <v>1370.151429</v>
+        <v>1457.9874159999999</v>
       </c>
       <c r="H41">
-        <v>2345.1752719999999</v>
+        <v>7927.7949159999998</v>
       </c>
       <c r="I41">
-        <v>2911.441065</v>
+        <v>2478.8780790000001</v>
       </c>
       <c r="J41">
-        <v>3487.791256</v>
+        <v>10840.861650000001</v>
       </c>
       <c r="K41">
-        <v>4002.3998499999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>792.55476839999994</v>
-      </c>
-      <c r="B42">
-        <v>5.1741333330000003</v>
-      </c>
-      <c r="C42">
-        <v>277.56829549999998</v>
-      </c>
-      <c r="D42">
-        <v>196.28493349999999</v>
-      </c>
-      <c r="E42">
-        <v>211.59191190000001</v>
-      </c>
-      <c r="F42">
-        <v>258.28464839999998</v>
-      </c>
-      <c r="G42">
-        <v>229.41866289999999</v>
-      </c>
-      <c r="H42">
-        <v>1954.5633849999999</v>
-      </c>
-      <c r="I42">
-        <v>2574.8292849999998</v>
-      </c>
-      <c r="J42">
-        <v>3138.9344879999999</v>
-      </c>
-      <c r="K42">
-        <v>3615.636884</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>766.53962039999999</v>
-      </c>
-      <c r="B43">
-        <v>5.1741333330000003</v>
-      </c>
-      <c r="C43">
-        <v>271.81468009999998</v>
-      </c>
-      <c r="D43">
-        <v>4104.2143859999996</v>
-      </c>
-      <c r="E43">
-        <v>5297.5668649999998</v>
-      </c>
-      <c r="F43">
-        <v>4641.6124030000001</v>
-      </c>
-      <c r="G43">
-        <v>4973.7523799999999</v>
-      </c>
-      <c r="H43">
-        <v>5940.6275569999998</v>
-      </c>
-      <c r="I43">
-        <v>7169.4644840000001</v>
-      </c>
-      <c r="J43">
-        <v>8052.1879630000003</v>
-      </c>
-      <c r="K43">
-        <v>8860.8494480000008</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>766.53929289999996</v>
-      </c>
-      <c r="B44">
-        <v>5.1741333330000003</v>
-      </c>
-      <c r="C44">
-        <v>271.77771280000002</v>
-      </c>
-      <c r="D44">
-        <v>368.58632849999998</v>
-      </c>
-      <c r="E44">
-        <v>411.35659809999999</v>
-      </c>
-      <c r="F44">
-        <v>423.44834500000002</v>
-      </c>
-      <c r="G44">
-        <v>415.81821580000002</v>
-      </c>
-      <c r="H44">
-        <v>4653.3519530000003</v>
-      </c>
-      <c r="I44">
-        <v>5758.0538280000001</v>
-      </c>
-      <c r="J44">
-        <v>6231.4720589999997</v>
-      </c>
-      <c r="K44">
-        <v>7014.4262330000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>750.54350609999995</v>
-      </c>
-      <c r="B45">
-        <v>5.0528333329999997</v>
-      </c>
-      <c r="C45">
-        <v>270.3798673</v>
-      </c>
-      <c r="D45">
-        <v>212.85418279999999</v>
-      </c>
-      <c r="E45">
-        <v>262.41236679999997</v>
-      </c>
-      <c r="F45">
-        <v>264.36912740000002</v>
-      </c>
-      <c r="G45">
-        <v>240.48876920000001</v>
-      </c>
-      <c r="H45">
-        <v>7032.2715589999998</v>
-      </c>
-      <c r="I45">
-        <v>1996.913082</v>
-      </c>
-      <c r="J45">
-        <v>9849.9817970000004</v>
-      </c>
-      <c r="K45">
-        <v>10082.075129999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>750.54242020000004</v>
-      </c>
-      <c r="B46">
-        <v>5.0528333329999997</v>
-      </c>
-      <c r="C46">
-        <v>270.41819270000002</v>
-      </c>
-      <c r="D46">
-        <v>1393.2091029999999</v>
-      </c>
-      <c r="E46">
-        <v>1580.141196</v>
-      </c>
-      <c r="F46">
-        <v>1534.5133069999999</v>
-      </c>
-      <c r="G46">
-        <v>1457.9874159999999</v>
-      </c>
-      <c r="H46">
-        <v>7927.7949159999998</v>
-      </c>
-      <c r="I46">
-        <v>2478.8780790000001</v>
-      </c>
-      <c r="J46">
-        <v>10840.861650000001</v>
-      </c>
-      <c r="K46">
         <v>11305.79098</v>
       </c>
     </row>
